--- a/class_diagram/after/model/entity/面談予約システム_クラス図 (model.entity).xlsx
+++ b/class_diagram/after/model/entity/面談予約システム_クラス図 (model.entity).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_mon\meeting_reservation_system\class_diagram\after\model\entity\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\model\entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{0838409B-5D79-4EFC-897B-A8B02436F40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E68AD5B7-5A29-496A-869C-2A725CE379A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7F607E-6715-40A7-9659-F95761240DC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Reservation" sheetId="2" r:id="rId1"/>
-    <sheet name="ReservationPast" sheetId="1" r:id="rId2"/>
+    <sheet name="Time" sheetId="3" r:id="rId1"/>
+    <sheet name="Reservation" sheetId="2" r:id="rId2"/>
+    <sheet name="ReservationPast" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,10 +27,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>getter/setterは、 @Data で自動生成</t>
     <rPh sb="23" eb="27">
@@ -68,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,7 +183,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10DE35A6-CB6F-4A3B-A982-D08D0F401667}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CF1862-24A9-4CF9-BF31-59B06937B5AB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7C723D1D-5EF5-4642-9441-CC5F06C01C0E}"/>
@@ -193,8 +194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6896100" y="2371725"/>
-          <a:ext cx="9505950" cy="6972300"/>
+          <a:off x="6896100" y="2466975"/>
+          <a:ext cx="9505950" cy="7258050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -235,7 +236,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Reservation extends ReservationPast</a:t>
+            <a:t>Time</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -245,25 +246,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28885156-2596-4EA2-ABBB-AA7240345383}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39794C94-EFA5-4132-B505-3EAFBE1F90FB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{10DE35A6-CB6F-4A3B-A982-D08D0F401667}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{19C0058D-CD41-2B82-5548-BC75C1405475}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -271,8 +272,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8658225" y="3114675"/>
-          <a:ext cx="1457325" cy="285750"/>
+          <a:off x="8772525" y="3686175"/>
+          <a:ext cx="1457325" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -411,26 +412,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9554C6CB-8127-4B74-90DE-D6E42FF0AC38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F47F9A56-675D-4E9A-8FFD-DC4D2DDFD43F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{28885156-2596-4EA2-ABBB-AA7240345383}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7F6EEA79-0F5C-4795-B8F6-2BCA09E68FD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -438,8 +439,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11753850" y="3124200"/>
-          <a:ext cx="1457325" cy="285750"/>
+          <a:off x="10372725" y="3686175"/>
+          <a:ext cx="1733550" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -569,8 +570,23 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>date : Date</a:t>
+            <a:t>start :</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> int</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -578,26 +594,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 13">
+        <xdr:cNvPr id="8" name="四角形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28652246-BC94-496A-815E-BA8EC055A62F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38786A9A-8CF4-4CCF-8262-051A39837996}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9554C6CB-8127-4B74-90DE-D6E42FF0AC38}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A3E37FFB-3487-4C88-90DF-6E74D33BD5D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -605,8 +621,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13315950" y="3124200"/>
-          <a:ext cx="1457325" cy="285750"/>
+          <a:off x="8763000" y="4743450"/>
+          <a:ext cx="2609850" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -736,7 +752,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>startTime : int</a:t>
+            <a:t>createdAt : LocalDateTime</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -745,26 +761,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 14">
+        <xdr:cNvPr id="9" name="四角形 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6ADB63-4442-4323-A577-1609200D1C03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B081E0-2128-4F98-94A7-BDC4E88082FE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{28652246-BC94-496A-815E-BA8EC055A62F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{256A9663-EE6B-41F8-B849-B19E89FABC69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -772,8 +788,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14859000" y="3124200"/>
-          <a:ext cx="1457325" cy="285750"/>
+          <a:off x="11982450" y="4772025"/>
+          <a:ext cx="3971925" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,842 +919,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>startTime : int</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17900F71-E150-4499-93B4-4B35A8D09563}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BE6ADB63-4442-4323-A577-1609200D1C03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8763000" y="4048125"/>
-          <a:ext cx="1847850" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>userName : String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65FEA00F-0710-487F-A5FB-53E1F74FF9B2}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{17900F71-E150-4499-93B4-4B35A8D09563}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10753725" y="4048125"/>
-          <a:ext cx="3067050" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>interviewerName : String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="四角形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35820D9A-D203-4648-B2A9-A658A88C613D}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{65FEA00F-0710-487F-A5FB-53E1F74FF9B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8753475" y="4038600"/>
-          <a:ext cx="1971675" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>createAt : DateTime</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="四角形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E20C26-C094-4896-8EFC-252346C34725}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{35820D9A-D203-4648-B2A9-A658A88C613D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10858500" y="4038600"/>
-          <a:ext cx="1971675" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>updateAt : DateTime</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="四角形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C19A1E-34A9-4B59-91CB-5466035DD857}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{22E20C26-C094-4896-8EFC-252346C34725}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10201275" y="3114675"/>
-          <a:ext cx="1457325" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>url : String</a:t>
+            <a:t>updatedAt : LocalDateTime</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1768,6 +949,256 @@
         <xdr:cNvPr id="2" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10DE35A6-CB6F-4A3B-A982-D08D0F401667}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7C723D1D-5EF5-4642-9441-CC5F06C01C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="2371725"/>
+          <a:ext cx="9505950" cy="6972300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Reservation extends ReservationPast</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C19A1E-34A9-4B59-91CB-5466035DD857}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{22E20C26-C094-4896-8EFC-252346C34725}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="3114675"/>
+          <a:ext cx="1457325" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>url : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C0058D-CD41-2B82-5548-BC75C1405475}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
@@ -2004,7 +1435,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -2024,8 +1455,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10372725" y="3543300"/>
-          <a:ext cx="1457325" cy="333375"/>
+          <a:off x="10372725" y="3686175"/>
+          <a:ext cx="1733550" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2155,7 +1586,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>date : Date</a:t>
+            <a:t>date : LocalDate</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2164,14 +1595,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -2191,8 +1622,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11963400" y="3543300"/>
-          <a:ext cx="1457325" cy="333375"/>
+          <a:off x="13830300" y="3686175"/>
+          <a:ext cx="1457325" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2671,8 +2102,8 @@
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -2692,8 +2123,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8763000" y="4562475"/>
-          <a:ext cx="1971675" cy="333375"/>
+          <a:off x="8763000" y="4743450"/>
+          <a:ext cx="2609850" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2823,7 +2254,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>createAt : DateTime</a:t>
+            <a:t>createdAt : LocalDateTime</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2832,16 +2263,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2859,8 +2290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10896600" y="4572000"/>
-          <a:ext cx="1971675" cy="333375"/>
+          <a:off x="11982450" y="4772025"/>
+          <a:ext cx="3971925" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2990,7 +2421,174 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>updateAt : DateTime</a:t>
+            <a:t>updatedAt : LocalDateTime</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E5FF0D-52BF-4ECD-9B00-12B72F42F9E4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A0A200CD-FD1C-4C76-B0D0-9DCEE7CCE8A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12230100" y="3686175"/>
+          <a:ext cx="1457325" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>time : Time</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3316,38 +2914,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0792F2D1-954B-4D16-ADDA-97ED350C4C6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4545989-AF5C-4823-8D0B-D740F1EE64A2}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="19" spans="7:8" ht="18">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" ht="18">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" ht="18">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="28.9">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0792F2D1-954B-4D16-ADDA-97ED350C4C6E}">
+  <dimension ref="F19:I105"/>
+  <sheetViews>
+    <sheetView topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -3361,39 +3005,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="19" spans="7:8">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="28.9">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>

--- a/class_diagram/after/model/entity/面談予約システム_クラス図 (model.entity).xlsx
+++ b/class_diagram/after/model/entity/面談予約システム_クラス図 (model.entity).xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\model\entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7F607E-6715-40A7-9659-F95761240DC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{9E7F607E-6715-40A7-9659-F95761240DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7734453B-5977-4931-93BD-3D4ED7100B3D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="3" r:id="rId1"/>
     <sheet name="Reservation" sheetId="2" r:id="rId2"/>
-    <sheet name="ReservationPast" sheetId="1" r:id="rId3"/>
+    <sheet name="User" sheetId="4" r:id="rId3"/>
+    <sheet name="Manager" sheetId="5" r:id="rId4"/>
+    <sheet name="Interviewer" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,10 +29,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>getter/setterは、 @Data で自動生成</t>
     <rPh sb="23" eb="27">
@@ -64,12 +66,34 @@
   <si>
     <t xml:space="preserve"> アクター別パッケージ名</t>
   </si>
+  <si>
+    <t>getter/setterは、 @Data で自動生成</t>
+    <rPh sb="23" eb="27">
+      <t>ジドウセイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*lombook使用</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> メソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,7 +288,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39794C94-EFA5-4132-B505-3EAFBE1F90FB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{19C0058D-CD41-2B82-5548-BC75C1405475}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C6CF1862-24A9-4CF9-BF31-59B06937B5AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -613,7 +637,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38786A9A-8CF4-4CCF-8262-051A39837996}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A3E37FFB-3487-4C88-90DF-6E74D33BD5D2}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F47F9A56-675D-4E9A-8FFD-DC4D2DDFD43F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -762,15 +786,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -780,7 +804,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B081E0-2128-4F98-94A7-BDC4E88082FE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{256A9663-EE6B-41F8-B849-B19E89FABC69}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{38786A9A-8CF4-4CCF-8262-051A39837996}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -788,7 +812,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11982450" y="4772025"/>
+          <a:off x="12039600" y="4819650"/>
           <a:ext cx="3971925" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -920,6 +944,173 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>updatedAt : LocalDateTime</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB13660C-5BF1-4B27-A5E9-B89A234C10DD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{74B081E0-2128-4F98-94A7-BDC4E88082FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12258675" y="3705225"/>
+          <a:ext cx="3971925" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>reservations : List&lt;Reservation&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1002,7 +1193,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Reservation extends ReservationPast</a:t>
+            <a:t>Reservation</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1030,7 +1221,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C19A1E-34A9-4B59-91CB-5466035DD857}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{22E20C26-C094-4896-8EFC-252346C34725}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{10DE35A6-CB6F-4A3B-A982-D08D0F401667}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,7 +1360,1009 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>url : String</a:t>
+            <a:t>id : int</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB34F29A-ADFA-4D04-A864-AF9320311B9C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{41C19A1E-34A9-4B59-91CB-5466035DD857}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191750" y="4229100"/>
+          <a:ext cx="1609725" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>date : LocalDate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAED5F73-1D0A-41C8-8E53-14DB4C52093F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BB34F29A-ADFA-4D04-A864-AF9320311B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="4791075"/>
+          <a:ext cx="1609725" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>time : Time</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394D00A4-FC0D-48EA-BC48-001120823AC7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AAED5F73-1D0A-41C8-8E53-14DB4C52093F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191750" y="5381625"/>
+          <a:ext cx="1609725" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>user : User</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB19E89D-9BF0-418B-B422-D692B6734A9D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{394D00A4-FC0D-48EA-BC48-001120823AC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191750" y="5972175"/>
+          <a:ext cx="2638425" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>interviewer : Interviewer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA93AFF-6604-4215-9A4D-643D351C4D3F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FB19E89D-9BF0-418B-B422-D692B6734A9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10172700" y="6553200"/>
+          <a:ext cx="2609850" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>createdAt : LocalDateTime</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B1DF02-ED36-46AE-9E96-D4F222C2C1BA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FFA93AFF-6604-4215-9A4D-643D351C4D3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163175" y="7143750"/>
+          <a:ext cx="3971925" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>updatedAt : LocalDateTime</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1184,25 +2377,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C0058D-CD41-2B82-5548-BC75C1405475}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7C723D1D-5EF5-4642-9441-CC5F06C01C0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340672CB-8614-4ECD-AE4B-994D744A6AA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1210,8 +2400,3213 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6896100" y="2371725"/>
-          <a:ext cx="9505950" cy="6972300"/>
+          <a:off x="7115174" y="2686050"/>
+          <a:ext cx="8963025" cy="5133975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>User</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E82692-D163-4719-8CA9-D89FAAFA3630}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{340672CB-8614-4ECD-AE4B-994D744A6AA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="3686175"/>
+          <a:ext cx="1457325" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>id : int</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D6DE54F-FB00-4C63-B45B-93FB3F7DF1F2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{96E82692-D163-4719-8CA9-D89FAAFA3630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="3676650"/>
+          <a:ext cx="1695450" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>name :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA1B776E-FBE8-4A7A-A920-3CD0923713F5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1D6DE54F-FB00-4C63-B45B-93FB3F7DF1F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648950" y="3667125"/>
+          <a:ext cx="1657350" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>kana</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF7E846-B4F9-47BA-A5CD-A26A0562F660}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CA1B776E-FBE8-4A7A-A920-3CD0923713F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12449175" y="3657600"/>
+          <a:ext cx="1657350" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>email</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893B5528-925F-44CE-9475-236DF6D413AD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EAF7E846-B4F9-47BA-A5CD-A26A0562F660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14268450" y="3648075"/>
+          <a:ext cx="1657350" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>pass</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B8B747-7154-44E7-909F-554DA724E610}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{893B5528-925F-44CE-9475-236DF6D413AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="4572000"/>
+          <a:ext cx="2857500" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>createdAt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : LocalDateTime</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62FCF5E-7FE6-46A6-B0F1-493C85CCC667}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B3B8B747-7154-44E7-909F-554DA724E610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11982449" y="4572000"/>
+          <a:ext cx="3057525" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>updatedAt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : LocalDateTime</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776F2DB7-2554-4CDF-9ECD-8AEEB000FCEA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D62FCF5E-7FE6-46A6-B0F1-493C85CCC667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="4133850"/>
+          <a:ext cx="3200400" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>reservations : List&lt;Reservation&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{659BFF8D-4D53-4672-8B8D-97C36B55BD99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115174" y="2686050"/>
+          <a:ext cx="8963025" cy="5133975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Manager</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4768FC-3D9C-4381-8885-04952C29EEA5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{659BFF8D-4D53-4672-8B8D-97C36B55BD99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="3686175"/>
+          <a:ext cx="1457325" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>id : int</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D41EA2B-1E10-4A49-B71A-ACE623D6FBFF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4D4768FC-3D9C-4381-8885-04952C29EEA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="3676650"/>
+          <a:ext cx="1695450" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>name :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE010A38-2D34-4DE7-BDE5-C2A3F8FF2267}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8D41EA2B-1E10-4A49-B71A-ACE623D6FBFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648950" y="3667125"/>
+          <a:ext cx="1657350" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>kana</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E42A2B-0725-404C-96B2-4533E71F3CC8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BE010A38-2D34-4DE7-BDE5-C2A3F8FF2267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12449175" y="3657600"/>
+          <a:ext cx="1657350" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>email</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79976188-D66E-4547-9E84-AB51F9ADBB3B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{33E42A2B-0725-404C-96B2-4533E71F3CC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14268450" y="3648075"/>
+          <a:ext cx="1657350" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>pass</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEAA448-6EC5-4287-92D6-82B649A4838A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{79976188-D66E-4547-9E84-AB51F9ADBB3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9934575" y="4152900"/>
+          <a:ext cx="2857500" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>createdAt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : LocalDateTime</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF1FBAB-C6B0-4E2E-A270-7B3B709F747C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5BEAA448-6EC5-4287-92D6-82B649A4838A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868274" y="4143375"/>
+          <a:ext cx="3057525" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>updatedAt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : LocalDateTime</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60777A0-ABBF-470E-BEDB-A437CB2D407C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EDF1FBAB-C6B0-4E2E-A270-7B3B709F747C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="4171950"/>
+          <a:ext cx="2705100" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>interviewers : List&lt;Interviewer&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C71C36-6C5D-4D5D-8342-D41D873E89B6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7C723D1D-5EF5-4642-9441-CC5F06C01C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="2466975"/>
+          <a:ext cx="9505950" cy="7258050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1237,10 +5632,101 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
@@ -1252,7 +5738,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>ReservationPast</a:t>
+            <a:t>Interviewer</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1263,24 +5749,24 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形 7">
+        <xdr:cNvPr id="3" name="四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CB05A9-72F4-4FC7-987D-7049D996FD44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD078A77-C7E1-4DF8-BC26-39A8E9B9B54E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{19C0058D-CD41-2B82-5548-BC75C1405475}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{41C71C36-6C5D-4D5D-8342-D41D873E89B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,8 +5774,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8772525" y="3543300"/>
-          <a:ext cx="1457325" cy="333375"/>
+          <a:off x="8772525" y="3686175"/>
+          <a:ext cx="1457325" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1430,24 +5916,24 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A200CD-FD1C-4C76-B0D0-9DCEE7CCE8A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16946123-1DD3-440C-8B9B-7A52E1277BE8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7F6EEA79-0F5C-4795-B8F6-2BCA09E68FD2}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CD078A77-C7E1-4DF8-BC26-39A8E9B9B54E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +5942,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10372725" y="3686175"/>
-          <a:ext cx="1733550" cy="342900"/>
+          <a:ext cx="1457325" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1586,7 +6072,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>date : LocalDate</a:t>
+            <a:t>name : String</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1595,26 +6081,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="四角形 13">
+        <xdr:cNvPr id="5" name="四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E71A98-D828-4397-9AC6-4B845F7DAEB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056268F8-5C73-447C-84DF-C6EECA96AA1B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A0A200CD-FD1C-4C76-B0D0-9DCEE7CCE8A5}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{16946123-1DD3-440C-8B9B-7A52E1277BE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,7 +6108,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13830300" y="3686175"/>
+          <a:off x="11963400" y="3686175"/>
           <a:ext cx="1457325" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1753,8 +6239,23 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>startTime : int</a:t>
+            <a:t>kana</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1764,24 +6265,24 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="四角形 15">
+        <xdr:cNvPr id="6" name="四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74C300A-CA69-47DC-A6D2-FEEBCB47D762}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E69500-1930-422B-ACCE-8211EB80E63F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{18B8BC45-63CC-4162-BB46-7F945333D80E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{056268F8-5C73-447C-84DF-C6EECA96AA1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1789,8 +6290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8763000" y="4048125"/>
-          <a:ext cx="1847850" cy="333375"/>
+          <a:off x="8763000" y="4210050"/>
+          <a:ext cx="1847850" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1920,7 +6421,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>userName : String</a:t>
+            <a:t>email : String</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1931,24 +6432,24 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="四角形 16">
+        <xdr:cNvPr id="7" name="四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E37FFB-3487-4C88-90DF-6E74D33BD5D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D130E1C-86DF-43B9-B9DC-662938CC68CA}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F74C300A-CA69-47DC-A6D2-FEEBCB47D762}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{99E69500-1930-422B-ACCE-8211EB80E63F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,8 +6457,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10772775" y="4038600"/>
-          <a:ext cx="3067050" cy="333375"/>
+          <a:off x="10772775" y="4200525"/>
+          <a:ext cx="1485900" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2087,7 +6588,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>interviewerName : String</a:t>
+            <a:t>pass : String</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2096,26 +6597,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="四角形 17">
+        <xdr:cNvPr id="8" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256A9663-EE6B-41F8-B849-B19E89FABC69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B59993B-9075-40FC-9DEC-70BDE2FC1626}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A3E37FFB-3487-4C88-90DF-6E74D33BD5D2}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7D130E1C-86DF-43B9-B9DC-662938CC68CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,8 +6624,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8763000" y="4743450"/>
-          <a:ext cx="2609850" cy="352425"/>
+          <a:off x="10874829" y="4791075"/>
+          <a:ext cx="2400299" cy="359228"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2263,26 +6764,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>408213</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>198665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>160564</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148318</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="四角形 18">
+        <xdr:cNvPr id="9" name="四角形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701072B3-8555-4AE9-8D28-3747AD2AFB67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F808DA-30D8-4582-AF07-F324319BB7A5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{256A9663-EE6B-41F8-B849-B19E89FABC69}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0B59993B-9075-40FC-9DEC-70BDE2FC1626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,8 +6791,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11982450" y="4772025"/>
-          <a:ext cx="3971925" cy="342900"/>
+          <a:off x="13438413" y="4799240"/>
+          <a:ext cx="2495551" cy="349703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2430,26 +6931,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>193222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="四角形 13">
+        <xdr:cNvPr id="10" name="四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E5FF0D-52BF-4ECD-9B00-12B72F42F9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53DC0E5-382E-424B-8EE0-80885D78F1A8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A0A200CD-FD1C-4C76-B0D0-9DCEE7CCE8A5}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{47F808DA-30D8-4582-AF07-F324319BB7A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,8 +6958,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12230100" y="3686175"/>
-          <a:ext cx="1457325" cy="342900"/>
+          <a:off x="8524875" y="4793797"/>
+          <a:ext cx="2133600" cy="359228"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2588,7 +7089,174 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>time : Time</a:t>
+            <a:t>manager : Manager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F9C66B-C34C-48B5-877D-E8BB9150AC55}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D53DC0E5-382E-424B-8EE0-80885D78F1A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12411075" y="4191000"/>
+          <a:ext cx="3257550" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>reservations : List&lt;Reservation&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2918,34 +7586,34 @@
   <dimension ref="F19:I105"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -2963,35 +7631,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0792F2D1-954B-4D16-ADDA-97ED350C4C6E}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -3006,47 +7674,137 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970EB0D7-FFC4-4DB8-AABC-956ECA39238D}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB36" sqref="AB36"/>
-    </sheetView>
+    <sheetView topLeftCell="I1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="24">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45AD577-367F-4592-BBCC-1834BF78FB76}">
+  <dimension ref="F19:I105"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="19" spans="7:8">
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8">
+      <c r="H20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="24">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B384DDD3-65A4-42CE-AE25-6620FFFB01E9}">
+  <dimension ref="F19:I105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="19" spans="7:8">
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8">
+      <c r="H20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="24">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>